--- a/Unity/Assets/Config/Excel/TitleConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TitleConfig.xlsx
@@ -1,38 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEB0B03-D9E9-43B9-A974-C451AE2CBDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="TitleProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -41,30 +47,11 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">-1 永久
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>其他对应秒时间</t>
+-1 永久
+其他对应秒时间</t>
         </r>
       </text>
     </comment>
@@ -177,6 +164,12 @@
     <t>名扬四海</t>
   </si>
   <si>
+    <t>100403;100</t>
+  </si>
+  <si>
+    <t>攻击+100</t>
+  </si>
+  <si>
     <t>赞助礼包获取</t>
   </si>
   <si>
@@ -195,6 +188,12 @@
     <t>英雄豪杰</t>
   </si>
   <si>
+    <t>100403;120</t>
+  </si>
+  <si>
+    <t>攻击+120</t>
+  </si>
+  <si>
     <t>登录奖励系统获取</t>
   </si>
   <si>
@@ -234,100 +233,77 @@
     <t>绝世英豪</t>
   </si>
   <si>
+    <t>202103;0.03</t>
+  </si>
+  <si>
+    <t>重击概率提升3%</t>
+  </si>
+  <si>
     <t>签到系统获取</t>
   </si>
   <si>
     <t>独孤求败</t>
   </si>
   <si>
+    <t>100403;600</t>
+  </si>
+  <si>
+    <t>攻击+600</t>
+  </si>
+  <si>
     <t>令牌系统获取</t>
   </si>
   <si>
     <t>九霄风云</t>
   </si>
   <si>
+    <t>203003;0.1@203103;0.1</t>
+  </si>
+  <si>
+    <t>对领主怪物伤害额外提升10%</t>
+  </si>
+  <si>
     <t>积分系统获取</t>
   </si>
   <si>
     <t>名震八方</t>
   </si>
   <si>
+    <t>200303;0.03</t>
+  </si>
+  <si>
+    <t>闪避率+3%</t>
+  </si>
+  <si>
+    <t>世人笑我太疯癫</t>
+  </si>
+  <si>
+    <t>100402;0.05@203003;0.05@203103;0.05</t>
+  </si>
+  <si>
+    <t>攻击提升5%,对怪伤害+5%</t>
+  </si>
+  <si>
     <t>一刃横天</t>
   </si>
   <si>
-    <t>203003;0.1@203103;0.1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>对领主怪物伤害额外提升10%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>世人笑我太疯癫</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避率+3%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>200303;0.03</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>202103;0.03</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>重击概率提升3%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击+600</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>100403;600</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击+100</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>100403;100</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击+120</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>100403;120</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>100402;0.05@203003;0.05@203103;0.05</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>100402;0.03@200103;0.03@203003;0.05@203103;0.05</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击提升5%,对怪伤害+5%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>攻击提升3%,暴击率+3%,对怪伤害+5%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,7 +315,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -347,39 +322,172 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,12 +502,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -420,9 +714,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -437,17 +973,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -734,19 +1314,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E6" sqref="E6:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -763,9 +1343,9 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1"/>
+    <row r="3" ht="20.1" customHeight="1" spans="3:14">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -803,7 +1383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="20.1" customHeight="1" spans="3:14">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -841,7 +1421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="20.1" customHeight="1" spans="3:14">
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
@@ -879,7 +1459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C6" s="4">
         <v>10001</v>
       </c>
@@ -920,7 +1500,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="20.1" customHeight="1" spans="3:22">
       <c r="C7" s="4">
         <v>10002</v>
       </c>
@@ -928,7 +1508,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="4">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>30</v>
@@ -960,7 +1540,7 @@
       <c r="T7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="20.1" customHeight="1" spans="3:22">
       <c r="C8" s="4">
         <v>10003</v>
       </c>
@@ -968,10 +1548,10 @@
         <v>33</v>
       </c>
       <c r="E8" s="4">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G8" s="4">
         <v>10008</v>
@@ -983,7 +1563,7 @@
         <v>-1</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="K8" s="4">
         <v>2</v>
@@ -995,23 +1575,23 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="20.1" customHeight="1" spans="3:22">
       <c r="C9" s="4">
         <v>10004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" s="4">
-        <v>10004</v>
+        <v>10001</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="4">
         <v>10004</v>
@@ -1023,7 +1603,7 @@
         <v>-1</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K9" s="4">
         <v>2</v>
@@ -1035,23 +1615,23 @@
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="20.1" customHeight="1" spans="3:22">
       <c r="C10" s="4">
         <v>100041</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="4">
-        <v>10016</v>
+        <v>10001</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G10" s="4">
         <v>10016</v>
@@ -1063,7 +1643,7 @@
         <v>-1</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="K10" s="4">
         <v>2</v>
@@ -1075,23 +1655,23 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="20.1" customHeight="1" spans="3:22">
       <c r="C11" s="4">
         <v>10005</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4">
-        <v>10005</v>
+        <v>10001</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G11" s="4">
         <v>10005</v>
@@ -1103,7 +1683,7 @@
         <v>-1</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K11" s="4">
         <v>2</v>
@@ -1115,23 +1695,23 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="20.1" customHeight="1" spans="3:22">
       <c r="C12" s="4">
         <v>10006</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4">
-        <v>10006</v>
+        <v>10001</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G12" s="4">
         <v>10006</v>
@@ -1143,7 +1723,7 @@
         <v>86400</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K12" s="4">
         <v>2</v>
@@ -1155,23 +1735,23 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="20.1" customHeight="1" spans="3:22">
       <c r="C13" s="4">
         <v>10007</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4">
-        <v>10007</v>
+        <v>10001</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G13" s="4">
         <v>10007</v>
@@ -1183,7 +1763,7 @@
         <v>86400</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K13" s="4">
         <v>2</v>
@@ -1195,23 +1775,23 @@
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="20.1" customHeight="1" spans="3:22">
       <c r="C14" s="4">
         <v>10008</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E14" s="4">
-        <v>10008</v>
+        <v>10001</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G14" s="4">
         <v>10003</v>
@@ -1223,7 +1803,7 @@
         <v>-1</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K14" s="4">
         <v>2</v>
@@ -1235,23 +1815,23 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="T14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="20.1" customHeight="1" spans="3:22">
       <c r="C15" s="4">
         <v>10009</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E15" s="4">
-        <v>10009</v>
+        <v>10001</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G15" s="4">
         <v>10009</v>
@@ -1263,7 +1843,7 @@
         <v>-1</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K15" s="4">
         <v>2</v>
@@ -1275,23 +1855,23 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="T15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="20.1" customHeight="1" spans="3:22">
       <c r="C16" s="4">
         <v>10011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E16" s="4">
-        <v>10011</v>
+        <v>10001</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G16" s="4">
         <v>10011</v>
@@ -1303,7 +1883,7 @@
         <v>-1</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K16" s="4">
         <v>2</v>
@@ -1315,23 +1895,23 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="T16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="20.1" customHeight="1" spans="3:22">
       <c r="C17" s="4">
         <v>10013</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E17" s="4">
-        <v>10013</v>
+        <v>10001</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G17" s="4">
         <v>10013</v>
@@ -1343,7 +1923,7 @@
         <v>-1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K17" s="4">
         <v>2</v>
@@ -1355,23 +1935,23 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="T17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="20.1" customHeight="1" spans="3:22">
       <c r="C18" s="4">
         <v>10014</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E18" s="4">
-        <v>10014</v>
+        <v>10001</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" s="4">
         <v>10014</v>
@@ -1383,7 +1963,7 @@
         <v>-1</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K18" s="4">
         <v>2</v>
@@ -1395,23 +1975,23 @@
         <v>0</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="T18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="20.1" customHeight="1" spans="3:22">
       <c r="C19" s="4">
         <v>10015</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E19" s="4">
-        <v>10015</v>
+        <v>10001</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G19" s="4">
         <v>10015</v>
@@ -1435,27 +2015,27 @@
         <v>0</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="T19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="20.1" customHeight="1" spans="20:22">
       <c r="T20" s="1"/>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="20.1" customHeight="1"/>
+    <row r="22" ht="20.1" customHeight="1"/>
+    <row r="23" ht="20.1" customHeight="1"/>
+    <row r="24" ht="20.1" customHeight="1"/>
+    <row r="25" ht="20.1" customHeight="1"/>
+    <row r="26" ht="20.1" customHeight="1"/>
+    <row r="27" ht="20.1" customHeight="1"/>
+    <row r="28" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>